--- a/branches/change-IG-path-in-IG.ini-file/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/change-IG-path-in-IG.ini-file/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:39:57+00:00</t>
+    <t>2023-02-16T08:15:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
